--- a/biology/Zoologie/Cascadure/Cascadure.xlsx
+++ b/biology/Zoologie/Cascadure/Cascadure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Megalechis picta (nom commun français, Cascadure[3]) est une espèce de poisson-chat de la famille des Callichthyidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Megalechis picta (nom commun français, Cascadure) est une espèce de poisson-chat de la famille des Callichthyidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Megalechis picta se rencontre en Amérique du Sud, dans les bassins de l'Amazone, de l'Orénoque et de l'Essequibo, ainsi que dans les rivières côtières de la Guyane, du Guyana et du Suriname[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Megalechis picta se rencontre en Amérique du Sud, dans les bassins de l'Amazone, de l'Orénoque et de l'Essequibo, ainsi que dans les rivières côtières de la Guyane, du Guyana et du Suriname.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Pseudophoxinus battalgilae est de 155 mm[3]. Durant la saison sèche cette espèce s'enfonce dans la vase à une profondeur de 150 à 250 mm en attendant le retour de la saison des pluies[3].
-Ce poisson n'a qu'une faible valeur commerciale pour l'alimentation mais un marché existe pour l'aquariophilie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Pseudophoxinus battalgilae est de 155 mm. Durant la saison sèche cette espèce s'enfonce dans la vase à une profondeur de 150 à 250 mm en attendant le retour de la saison des pluies.
+Ce poisson n'a qu'une faible valeur commerciale pour l'alimentation mais un marché existe pour l'aquariophilie.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste non exhaustive :
 allemand - Gemalter Schwielenwels, Schwarzer Schwielenwels ;
@@ -618,9 +636,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Müller &amp; Troschel, 1849 : Fische. p. 618-644 in Reisen in Britisch-Guiana in den Jahren 1840-44. Im Auftrag Sr. Mäjestat des Königs von Preussen ausgeführt von Richard Schomburgk. [Versuch einer Fauna und Flora von Britisch-Guiana.] vol. 3.[4] (texte intégral).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Müller &amp; Troschel, 1849 : Fische. p. 618-644 in Reisen in Britisch-Guiana in den Jahren 1840-44. Im Auftrag Sr. Mäjestat des Königs von Preussen ausgeführt von Richard Schomburgk. [Versuch einer Fauna und Flora von Britisch-Guiana.] vol. 3. (texte intégral).</t>
         </is>
       </c>
     </row>
